--- a/streamlit/stock_app/pages/scripCode.xlsx
+++ b/streamlit/stock_app/pages/scripCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\streamlit\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\streamlit\stock_app\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D343A-3352-405B-89E4-F60F3B9CFF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF72F52-A219-48C0-8F45-2244F1AC0CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,96 +25,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>scripCode</t>
   </si>
   <si>
-    <t>500325</t>
-  </si>
-  <si>
-    <t>532540</t>
-  </si>
-  <si>
-    <t>500180</t>
-  </si>
-  <si>
-    <t>532174</t>
-  </si>
-  <si>
-    <t>500209</t>
-  </si>
-  <si>
-    <t>500112</t>
-  </si>
-  <si>
-    <t>543526</t>
-  </si>
-  <si>
-    <t>532454</t>
-  </si>
-  <si>
-    <t>500696</t>
-  </si>
-  <si>
-    <t>500875</t>
-  </si>
-  <si>
-    <t>500510</t>
-  </si>
-  <si>
-    <t>532281</t>
-  </si>
-  <si>
-    <t>500034</t>
-  </si>
-  <si>
-    <t>512599</t>
-  </si>
-  <si>
-    <t>524715</t>
-  </si>
-  <si>
-    <t>532500</t>
-  </si>
-  <si>
-    <t>500312</t>
-  </si>
-  <si>
-    <t>500247</t>
-  </si>
-  <si>
-    <t>532555</t>
-  </si>
-  <si>
-    <t>532215</t>
-  </si>
-  <si>
-    <t>500114</t>
-  </si>
-  <si>
-    <t>500570</t>
-  </si>
-  <si>
-    <t>541450</t>
-  </si>
-  <si>
-    <t>500820</t>
-  </si>
-  <si>
-    <t>532538</t>
-  </si>
-  <si>
-    <t>533278</t>
-  </si>
-  <si>
-    <t>532921</t>
-  </si>
-  <si>
-    <t>507685</t>
-  </si>
-  <si>
-    <t>530965</t>
+    <t>542145</t>
+  </si>
+  <si>
+    <t>535657</t>
+  </si>
+  <si>
+    <t>543460</t>
+  </si>
+  <si>
+    <t>507966</t>
+  </si>
+  <si>
+    <t>516098</t>
+  </si>
+  <si>
+    <t>538788</t>
+  </si>
+  <si>
+    <t>508918</t>
+  </si>
+  <si>
+    <t>531370</t>
+  </si>
+  <si>
+    <t>532701</t>
+  </si>
+  <si>
+    <t>532825</t>
+  </si>
+  <si>
+    <t>542682</t>
+  </si>
+  <si>
+    <t>539117</t>
+  </si>
+  <si>
+    <t>Roni Households Ltd</t>
+  </si>
+  <si>
+    <t>40.82</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>27 Feb 24 | 04:00 PM</t>
+  </si>
+  <si>
+    <t>OBJECTONE INFORMATION SYSTEMS LTD.</t>
+  </si>
+  <si>
+    <t>16.90</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>28 Feb 24 | 04:00 PM</t>
+  </si>
+  <si>
+    <t>Quality RO Industries Ltd</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>-1.09</t>
+  </si>
+  <si>
+    <t>RAS RESORTS &amp; APART HOTELS LTD.</t>
+  </si>
+  <si>
+    <t>43.09</t>
+  </si>
+  <si>
+    <t>-1.12</t>
+  </si>
+  <si>
+    <t>-2.53</t>
+  </si>
+  <si>
+    <t>VENTURA TEXTILES LTD.</t>
+  </si>
+  <si>
+    <t>11.37</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>Gilada Finance &amp; Investments Ltd</t>
+  </si>
+  <si>
+    <t>12.34</t>
+  </si>
+  <si>
+    <t>-0.62</t>
+  </si>
+  <si>
+    <t>-4.78</t>
+  </si>
+  <si>
+    <t>Ironwood Education Ltd</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>Sparc Electrex Ltd</t>
+  </si>
+  <si>
+    <t>23.99</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>-1.88</t>
+  </si>
+  <si>
+    <t>Cella Space Ltd</t>
+  </si>
+  <si>
+    <t>9.34</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>JAGJANANI TEXTILES LTD.</t>
+  </si>
+  <si>
+    <t>15.63</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>Harish Textile Engineers Ltd</t>
+  </si>
+  <si>
+    <t>52.94</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>Sujala Trading &amp; Holdings Ltd</t>
+  </si>
+  <si>
+    <t>32.90</t>
+  </si>
+  <si>
+    <t>-1.75</t>
+  </si>
+  <si>
+    <t>-5.05</t>
   </si>
 </sst>
 </file>
@@ -458,162 +554,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
